--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:53:40+00:00</t>
+    <t>2025-04-14T14:45:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T14:45:12+00:00</t>
+    <t>2025-04-14T15:18:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:18:15+00:00</t>
+    <t>2025-04-14T15:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:39:56+00:00</t>
+    <t>2025-04-14T16:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T16:50:44+00:00</t>
+    <t>2025-04-14T17:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T17:04:46+00:00</t>
+    <t>2025-04-15T06:58:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T06:58:45+00:00</t>
+    <t>2025-04-15T07:12:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:12:06+00:00</t>
+    <t>2025-04-15T07:37:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:37:51+00:00</t>
+    <t>2025-04-15T07:52:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:52:12+00:00</t>
+    <t>2025-04-15T15:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T15:09:09+00:00</t>
+    <t>2025-04-16T14:17:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T14:17:39+00:00</t>
+    <t>2025-04-24T15:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-24T15:43:49+00:00</t>
+    <t>2025-04-25T13:21:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationcomp-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-25T13:21:13+00:00</t>
+    <t>2025-04-30T11:20:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
